--- a/sims_impact_data_le_injury_only.xlsx
+++ b/sims_impact_data_le_injury_only.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E2">
@@ -650,7 +650,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3">
@@ -769,7 +769,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E4">
@@ -888,7 +888,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E5">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E6">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E7">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E8">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E9">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E10">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E11">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E12">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E13">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E14">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E15">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E16">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E17">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E18">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E19">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E20">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E21">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E22">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E23">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E24">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E25">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E26">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E27">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E28">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E29">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E30">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E31">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E32">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E33">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E34">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E35">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E36">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E37">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E38">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E39">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E40">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E41">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E42">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E43">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E44">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E45">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E46">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E47">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E48">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E49">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E50">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E51">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E52">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E53">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E54">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E55">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E56">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E57">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E58">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E59">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E60">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E61">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E62">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E63">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E64">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E65">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E66">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E67">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E68">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E69">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E70">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E71">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E72">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E73">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E74">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E75">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E76">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E77">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E78">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E79">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E80">
@@ -9932,7 +9932,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E81">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E82">
@@ -10170,7 +10170,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E83">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E84">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E85">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E86">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E87">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E88">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E89">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E90">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E91">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E92">
@@ -11360,7 +11360,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E93">
@@ -11479,7 +11479,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E94">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E95">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E96">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E97">
@@ -11955,7 +11955,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E98">
@@ -12074,7 +12074,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E99">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E100">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E101">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E102">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E103">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E104">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E105">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E106">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E107">

--- a/sims_impact_data_le_injury_only.xlsx
+++ b/sims_impact_data_le_injury_only.xlsx
@@ -686,7 +686,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2590,12 +2590,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3304,12 +3304,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3423,12 +3423,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3542,12 +3542,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3780,12 +3780,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4018,12 +4018,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4375,12 +4375,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5089,12 +5089,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -6755,12 +6755,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6874,12 +6874,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6993,12 +6993,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -7350,12 +7350,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -8064,12 +8064,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8302,12 +8302,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8540,12 +8540,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8659,12 +8659,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9016,12 +9016,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9135,12 +9135,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -9373,12 +9373,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9968,12 +9968,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -10444,12 +10444,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -10563,12 +10563,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -10682,12 +10682,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -11277,12 +11277,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11872,12 +11872,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -11991,12 +11991,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -12110,12 +12110,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -12229,7 +12229,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -12467,12 +12467,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -12586,12 +12586,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -12824,12 +12824,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>JV</t>
+          <t>Junior Varsity</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
